--- a/data/trans_dic/P16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,78%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>37,45; 70,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>47,51; 75,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>30,53; 59,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>58,36; 78,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>43,09; 63,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>45,78; 69,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>57,03; 73,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>47,33; 64,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>44,1; 62,25</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,47%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>53,0; 77,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>48,6; 68,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>46,47; 65,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>61,0; 79,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>54,04; 70,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>44,59; 62,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>61,87; 76,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>54,71; 67,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>47,91; 61,08</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,02%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>61,15; 80,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>58,03; 77,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>42,53; 61,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>76,32; 88,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>64,15; 76,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>56,19; 71,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>72,69; 83,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>64,41; 75,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>53,13; 65,39</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,34%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>63,74; 84,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>63,92; 81,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>58,78; 76,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>70,37; 85,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>74,45; 86,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>63,2; 76,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>70,22; 82,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>72,55; 83,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>63,93; 74,76</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,95%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>76,17; 91,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>75,56; 90,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>58,41; 77,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>79,46; 91,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>76,09; 88,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>78,86; 90,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>80,53; 90,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>77,79; 87,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>73,44; 83,57</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,7%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>85,89; 96,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>89,62; 97,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>84,34; 93,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>91,95; 97,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>93,06; 97,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>85,8; 92,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>91,26; 96,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>93,04; 96,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>86,59; 92,52</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,23%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>73,01; 81,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>72,25; 79,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,79; 70,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,01; 86,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>76,85; 81,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>72,86; 78,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>79,53; 83,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>76,03; 80,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>70,04; 74,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>88,4%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,89; 96,1</t>
+          <t>81,58; 97,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,62; 97,2</t>
+          <t>87,71; 98,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,34; 93,81</t>
+          <t>76,24; 94,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,3</t>
+          <t>87,09; 96,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,34</t>
+          <t>89,56; 97,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>85,8; 92,57</t>
+          <t>82,8; 93,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,26; 96,26</t>
+          <t>87,89; 96,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>93,04; 96,91</t>
+          <t>90,78; 96,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,59; 92,52</t>
+          <t>83,3; 92,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>90,73%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>82,11; 96,94</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 97,34</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85,65; 96,05</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92,79; 99,2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93,33; 98,91</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>84,26; 94,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>92,0; 97,88</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92,7; 97,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86,0; 94,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>77,58%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>76,25%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>79,34%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>75,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>81,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>78,3%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>73,01; 81,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>72,25; 79,64</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>62,79; 70,37</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>81,01; 86,11</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>76,85; 81,57</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>72,86; 78,19</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>79,53; 83,62</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>76,03; 80,23</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>70,04; 74,43</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 70,7</t>
+          <t>38,97; 71,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,51; 75,61</t>
+          <t>46,63; 75,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,53; 59,88</t>
+          <t>31,09; 60,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,36; 78,41</t>
+          <t>58,25; 78,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,09; 63,78</t>
+          <t>42,6; 62,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,78; 69,93</t>
+          <t>46,89; 70,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,03; 73,57</t>
+          <t>55,92; 73,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,33; 64,5</t>
+          <t>48,07; 64,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,1; 62,25</t>
+          <t>43,06; 62,38</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,0; 77,71</t>
+          <t>52,91; 77,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,6; 68,26</t>
+          <t>47,81; 67,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,47; 65,75</t>
+          <t>46,56; 65,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,0; 79,78</t>
+          <t>61,53; 80,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,04; 70,76</t>
+          <t>53,92; 70,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,59; 62,15</t>
+          <t>44,05; 61,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,87; 76,61</t>
+          <t>61,44; 76,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,71; 67,24</t>
+          <t>54,62; 67,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,91; 61,08</t>
+          <t>47,21; 61,33</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,15; 80,22</t>
+          <t>61,79; 81,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,03; 77,57</t>
+          <t>59,05; 78,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,53; 61,18</t>
+          <t>43,19; 61,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,32; 88,58</t>
+          <t>75,27; 88,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,15; 76,99</t>
+          <t>64,55; 77,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,19; 71,97</t>
+          <t>56,67; 72,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,69; 83,7</t>
+          <t>73,05; 84,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,41; 75,19</t>
+          <t>64,93; 75,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,13; 65,39</t>
+          <t>53,23; 64,99</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,74; 84,53</t>
+          <t>63,7; 83,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,92; 81,46</t>
+          <t>63,34; 81,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,78; 76,4</t>
+          <t>60,51; 76,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,37; 85,19</t>
+          <t>70,45; 85,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,45; 86,68</t>
+          <t>74,05; 86,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,2; 76,41</t>
+          <t>62,64; 76,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,22; 82,46</t>
+          <t>70,8; 83,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,55; 83,01</t>
+          <t>73,05; 83,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,93; 74,76</t>
+          <t>63,86; 74,4</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,17; 91,62</t>
+          <t>76,05; 91,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,56; 90,79</t>
+          <t>75,37; 90,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,41; 77,6</t>
+          <t>58,89; 77,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,46; 91,99</t>
+          <t>78,52; 92,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,09; 88,44</t>
+          <t>74,44; 88,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,86; 90,16</t>
+          <t>78,5; 89,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,53; 90,15</t>
+          <t>80,41; 90,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,79; 87,75</t>
+          <t>78,06; 87,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,44; 83,57</t>
+          <t>72,95; 83,5</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>81,58; 97,34</t>
+          <t>83,25; 98,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,71; 98,76</t>
+          <t>87,89; 98,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,24; 94,7</t>
+          <t>75,36; 94,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,09; 96,65</t>
+          <t>87,04; 96,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,56; 97,02</t>
+          <t>89,3; 96,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,8; 93,39</t>
+          <t>83,16; 93,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,89; 96,01</t>
+          <t>88,12; 95,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,78; 96,74</t>
+          <t>91,08; 96,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,3; 92,0</t>
+          <t>83,18; 92,22</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,11; 96,94</t>
+          <t>82,22; 96,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,12; 97,34</t>
+          <t>86,04; 97,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,65; 96,05</t>
+          <t>85,48; 96,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92,79; 99,2</t>
+          <t>92,06; 99,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,33; 98,91</t>
+          <t>93,53; 98,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,26; 94,54</t>
+          <t>84,4; 94,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,0; 97,88</t>
+          <t>91,58; 97,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,75</t>
+          <t>92,47; 97,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,0; 94,21</t>
+          <t>86,02; 94,3</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>73,01; 81,26</t>
+          <t>73,66; 81,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,64</t>
+          <t>72,43; 79,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,37</t>
+          <t>62,87; 70,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,11</t>
+          <t>81,03; 86,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>76,85; 81,57</t>
+          <t>76,92; 81,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,86; 78,19</t>
+          <t>72,8; 78,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,53; 83,62</t>
+          <t>79,45; 83,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76,03; 80,23</t>
+          <t>76,26; 80,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>70,04; 74,43</t>
+          <t>69,88; 74,22</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21491</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33387</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>55869</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51184</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39365</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77360</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84571</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61942</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14857; 27257</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25245; 40661</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15443; 29898</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46788; 63035</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41146; 60779</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31736; 47895</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66229; 86752</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72467; 97507</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50538; 73203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42381</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57675</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53551</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>66001</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>93965</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68479</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>108382</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>151640</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>122030</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33557; 48840</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47488; 67516</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44362; 62840</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57172; 74384</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80272; 105483</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56713; 79101</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>96052; 118813</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>135568; 167166</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>105762; 137403</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61896</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59069</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116844</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>153236</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>98744</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>178739</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>221564</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>157813</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52912; 69378</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58623; 77684</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48999; 69748</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106130; 125445</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>139245; 166435</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87240; 110843</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>165562; 191224</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>204526; 237919</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>142323; 173772</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>57105</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>74648</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85753</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96088</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>158579</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>128704</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>153192</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>233227</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>214457</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>48580; 63988</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64365; 82810</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>75760; 96311</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86127; 104294</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>145183; 168755</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>115302; 141545</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>140550; 164868</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>217442; 247762</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>197490; 230106</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>73104</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>77933</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74001</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>98453</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>133338</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>162798</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>171556</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>211270</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>236799</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65114; 78414</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69741; 84104</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>63895; 83578</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89512; 104922</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>120473; 142607</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>150274; 171724</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>160515; 180219</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>198569; 223377</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>218783; 250450</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>44914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78646</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50117</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>102857</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>152257</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>143126</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>147770</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>230903</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>193243</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40431; 47668</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>72692; 81697</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>43548; 54688</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>96583; 107291</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>144693; 156804</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>133722; 150017</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>140571; 153004</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>222896; 236915</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>181832; 201581</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>49036</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>72636</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>75565</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>134844</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>199230</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>176184</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>183879</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>271866</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>251749</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43909; 51751</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>67024; 75872</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>70291; 79026</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>128258; 138194</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>192559; 203552</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>164794; 185042</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>176482; 188537</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>262417; 277373</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>238692; 261671</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>349926</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>463252</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>420634</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>670954</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>941789</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>817400</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1020879</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1405041</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1238033</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>332239; 367078</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>440023; 484127</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>397435; 446507</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>648815; 690276</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>913062; 967251</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>787612; 845204</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>994504; 1049751</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1368424; 1437696</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1197764; 1272209</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>